--- a/system_design/Georgetown/V0.5/bill_of_materials/bill_of_materials.xlsx
+++ b/system_design/Georgetown/V0.5/bill_of_materials/bill_of_materials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRH6\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\UAV-Deployable-Stage-Height-Sensor\system_design\Georgetown\V0.5\bill_of_materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F148F565-CEFA-4B0C-8BC4-88DE93526B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813F33D3-0DF1-4E68-BF8F-D9B46EF44B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>Arduino Nano</t>
   </si>
@@ -306,16 +306,48 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Vendor #1</t>
+  </si>
+  <si>
+    <t>Vendor #2</t>
+  </si>
+  <si>
+    <t>Vendor #3</t>
+  </si>
+  <si>
+    <t>Vendor #4</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/universal-solder-electronics-ltd/26077/16822117</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/166261269929?var=465869599966</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -338,13 +370,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -677,337 +712,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>83</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>24.9</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>24.9</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.89</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0.89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>1.4</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>1.4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>13.31</v>
-      </c>
-      <c r="E5">
-        <v>13.31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5.2450000000000001</v>
+        <v>13.31</v>
       </c>
       <c r="E6">
-        <v>5.2450000000000001</v>
+        <v>13.31</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2.5099999999999998</v>
+        <v>5.2450000000000001</v>
       </c>
       <c r="E7">
-        <v>2.5099999999999998</v>
+        <v>5.2450000000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E8">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>12.67</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>12.67</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>3.95</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>3.95</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>13.5</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>13.5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>29</v>
       </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>32</v>
       </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>8.23</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>8.23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>4.13</v>
-      </c>
-      <c r="E14">
-        <v>4.13</v>
       </c>
       <c r="F14" t="s">
         <v>35</v>
@@ -1016,297 +1047,297 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4.13</v>
+      </c>
+      <c r="E15">
+        <v>4.13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>40</v>
       </c>
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>0.85</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>0.85</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>43</v>
       </c>
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>0.2</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0.48</v>
-      </c>
-      <c r="E18">
-        <v>0.48</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.48</v>
+      </c>
+      <c r="E19">
+        <v>0.48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>0.77</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>0.77</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>52</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>0.1</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>0.7</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>55</v>
-      </c>
-      <c r="G20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0.4</v>
-      </c>
-      <c r="E21">
-        <v>0.4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>59</v>
       </c>
       <c r="G21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="E22">
-        <v>1.68</v>
+        <v>0.4</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>3.58</v>
+        <v>0.42</v>
       </c>
       <c r="E23">
-        <v>7.16</v>
+        <v>1.68</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3.58</v>
+      </c>
+      <c r="E24">
+        <v>7.16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>6.54</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>6.54</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>68</v>
       </c>
-      <c r="G24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>1.05</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>1.05</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>71</v>
       </c>
-      <c r="G25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>73</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>0.91</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>0.91</v>
-      </c>
-      <c r="F26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1.29</v>
-      </c>
-      <c r="E27">
-        <v>1.29</v>
       </c>
       <c r="F27" t="s">
         <v>74</v>
@@ -1315,62 +1346,90 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1.29</v>
+      </c>
+      <c r="E28">
+        <v>1.29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>78</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>0.67</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>0.67</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>79</v>
       </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>82</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>22284070</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>0.3</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>0.3</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>81</v>
       </c>
-      <c r="G29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>83</v>
       </c>
-      <c r="B31">
-        <f>SUM(E2:E29)</f>
+      <c r="B32">
+        <f>SUM(E3:E30)</f>
         <v>118.40500000000002</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H10" r:id="rId1" xr:uid="{AB3A406B-DBDE-4380-B561-811A1B8B3B8C}"/>
+    <hyperlink ref="I10" r:id="rId2" xr:uid="{8676EB05-9010-43B5-B653-B7453B8B0D48}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>